--- a/Modul Quantitative Methoden I_Termine.xlsx
+++ b/Modul Quantitative Methoden I_Termine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden I/VO_Statistik I/Statistik_I_Folien_WS24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden I/VO_Statistik I/Statistik_I_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75597A9E-DC74-D24F-83EE-E8538F3384AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73373BC-1A1F-FE4C-BB7E-611862EBBA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="8760" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1840" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m\.yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF161616"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,6 +150,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -365,7 +373,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -377,7 +385,7 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,174 +396,206 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>45582</v>
+      <c r="B2" s="8">
+        <v>45763</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>45589</v>
+      <c r="B3" s="8">
+        <v>45770</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>45596</v>
+      <c r="B4" s="8">
+        <v>45777</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>45603</v>
+      <c r="B5" s="8">
+        <v>45784</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>45610</v>
+      <c r="B6" s="8">
+        <v>45791</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>45617</v>
+      <c r="B7" s="8">
+        <v>45798</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>45272</v>
+      <c r="B8" s="8">
+        <v>45812</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>45645</v>
+      <c r="B9" s="8">
+        <v>45819</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>45300</v>
+      <c r="B10" s="8">
+        <v>45826</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>45307</v>
+      <c r="B11" s="8">
+        <v>45833</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>45314</v>
+      <c r="B12" s="8">
+        <v>45840</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>45321</v>
+      <c r="B13" s="8">
+        <v>45847</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>45328</v>
+      <c r="B14" s="8">
+        <v>45854</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
